--- a/Output/instrument_data_all_years/ag_surveys.xlsx
+++ b/Output/instrument_data_all_years/ag_surveys.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="358">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -65,9 +65,6 @@
     <t xml:space="preserve">funding_agencies</t>
   </si>
   <si>
-    <t xml:space="preserve">keep</t>
-  </si>
-  <si>
     <t xml:space="preserve">1849</t>
   </si>
   <si>
@@ -116,6 +113,143 @@
     <t xml:space="preserve">International Fund for Agricultural Development (IFAD), ROLE: Funding</t>
   </si>
   <si>
+    <t xml:space="preserve">2339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolivia (Plurinational State of)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pilot Test to Evaluate Questions for SDG Indicator 5.a.1, 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eddy Angel Foronda, Stella Saenz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agricultural holdings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experimental design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instituto Nacional de Reforma Agraria, (ROLE: ) // Ministerio de Desarrollo Rural y Tierras, (ROLE: )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eddy Angel Foronda (FLACSO Secretaría General), Stella Saenz (FLACSO Secretaría General)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food and Agriculture Organization, Headquarters (FAO HQ) // Food and Agriculture Organization, Regional Office for Latina America and the Caribbean (FAO HQ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burkina Faso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BFA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permanent Agricultural Survey 2023-2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50x2030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direction Générale des Études et des Statistiques Sectorielles (DGESS), General Directorate of Sectorial Studies and Statistics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plots of lands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Permanent Agricultural Survey covers all farming households in the country, as the study covers all 45 provinces.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direction Générale des Études et des Statistiques Sectorielles (DGESS), General Directorate of Sectorial Studies and Statistics (Ministère de l’Agriculture, des Ressources Animales et Halieutiques (MARAH), Ministry of Agriculture, Animal and Fisheries Resources)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambodia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KHM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambodia Agriculture Survey 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Institute of Statistics (NIS), Ministry of Planning, Ministry of Agriculture, Forestry and Fishery (MAFF)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agriculture Integrated Survey [hh/nhh/agris]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Household agricultural holdings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agricultural households, i.e. holdings in the household sector that are involved in agricultural activities, including the growing of crops, raising of livestock or poultry, and aquaculture or capture fishing activities. A minimum threshold was not considered to determine a household's engagement in the above mentioned activities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Institute of Statistics (NIS), Ministry of Planning (Royal Government of Cambodia), Ministry of Agriculture, Forestry and Fishery (MAFF) (Royal Government of Cambodia)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambodia Agriculture Survey 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Household agricultural holdings and juridical agricultural holdings.
+Note: The juridical agricultural holdings are not included in the released microdata.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agricultural households, i.e. holdings in the household sector that are involved in agricultural activities, including the growing of crops, raising of livestock or poultry, and aquaculture or capture fishing activities. It was not considered a minimum threshold to determine a household's engagement in the above-mentioned activities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambodia Agriculture Survey, 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Institute of Statistics (NIS), Ministry of Planning, Ministry of Agriculture, Forestry and Fisheries (MAFF)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agricultural households, i.e. holdings in the household sector that are involved in agricultural activities, including the growing of crops, raising of livestock or poultry, and aquaculture or capture fishing activities. It was not considered a minimum threshold to determine a household's engagement in the above mentioned activities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Institute of Statistics (NIS), Ministry of Planning (Royal Government of Cambodia), Ministry of Agriculture, Forestry and Fisheries (MAFF) (Royal Government of Cambodia)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambodia Inter-Censal Agriculture Survey 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Institute of Statistics (NIS), Ministry of Agriculture, Forestry and Fishery (MAFF)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agriculture Integrated Survey[hh/nhh/agris]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Household agricultural holdings and juridical agricultural holdings
+NOTE: the juridical agricultural holdings are not included in the released microdata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food and Agriculture Organization of the United Nations (AFFILIATION: United Nations, ROLE: Technical assistance in the design, implementation and dissemination of CIAS 2019) // Ministry of Economy and Finance (AFFILIATION: Royal Government of Cambodia, ROLE: Provided budgetary support) // Ministry of Water Resources and Meteorology (AFFILIATION: Royal Government of Cambodia, ROLE: Technical Committee member) // Ministry of Industry, Science, Technology and Innovation (AFFILIATION: Royal Government of Cambodia, ROLE: Technical Committee member) // Ministry of Land Management, Urban Planning and Construction (AFFILIATION: Royal Government of Cambodia, ROLE: Technical Committee member) // Council of Ministers (AFFILIATION: Royal Government of Cambodia, ROLE: Technical Committee member)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Institute of Statistics (NIS) (Ministry of Planning), Ministry of Agriculture, Forestry and Fishery (MAFF) (Royal Government of Cambodia)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United States Agency of International Development (USAID) // Bill and Melinda Gates Foundation (USAID) // Royal Government of Cambodia (USAID) // Food and Agriculture Organization of the United Nations (USAID)</t>
+  </si>
+  <si>
     <t xml:space="preserve">2057</t>
   </si>
   <si>
@@ -146,22 +280,46 @@
     <t xml:space="preserve">CHL</t>
   </si>
   <si>
-    <t xml:space="preserve">Pilot Test to Evaluate Questions for SDG Indicator 5.a.1, 2022</t>
-  </si>
-  <si>
     <t xml:space="preserve">Claudia Chavez, Stella Saenz</t>
   </si>
   <si>
-    <t xml:space="preserve">Experimental design</t>
-  </si>
-  <si>
     <t xml:space="preserve">, (ROLE: ) // , (ROLE: )</t>
   </si>
   <si>
     <t xml:space="preserve">Claudia Chavez (FLACSO Chile), Stella Saenz (FLACSO Secretaría General)</t>
   </si>
   <si>
-    <t xml:space="preserve">Food and Agriculture Organization, Headquarters (FAO HQ) // Food and Agriculture Organization, Regional Office for Latina America and the Caribbean (FAO HQ)</t>
+    <t xml:space="preserve">2070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agricultural Integrated Survey (AGRIS) - Pilot - MEA module, Ghana Pilot Survey 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food and Agricultural Organization, Ghana Statistical Service, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agricultural Integrated Survey (AGRISurvey)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agricultural holdings in the household sector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All households, agricultural or not, in the 4 surveyed districts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ministry of Food and Agriculture (AFFILIATION: Government Of Ghana, ROLE: Technical Support)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food and Agricultural Organization (United Nations), Ghana Statistical Service (Ministry of Finance and Economic Planning)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bill &amp; Melinda Gates Foundation (BMGF), ROLE: Financial Support</t>
   </si>
   <si>
     <t xml:space="preserve">1756</t>
@@ -221,6 +379,64 @@
     <t xml:space="preserve">Government of Malawi (), ROLE: Financial support // The World Bank Living Standards Measurement Study - Integrated Surveys on Agriculture (), ROLE: Financial support // Millennium Challenge Corporation (), ROLE: Financial support</t>
   </si>
   <si>
+    <t xml:space="preserve">985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Agricultural Survey 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Institute of Statistics, Geography and Informatics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The universe for the ENA 2017 was made up of 101,828 production units, coming from the Census Agricultural Frame Update (AMCA 2016). This universe was defined from the 34 products of national interest selected for the survey, 29 of which are annual and perennial crops and the rest corresponds to livestock species and products of economic importance for the country.
+The crops that were the subject of the survey were: white grain corn, yellow grain corn, sugar cane, wheat grain, avocado, sorghum grain, beans, chili, alfalfa, tomato, melon, watermelon, coffee, orange, grape, banana, lemon, mango, onion, squash, cotton, apple, cocoa, rice, barley, soy, forage corn, forage sorghum and strawberry; while the species and livestock products were made up of: cattle, pigs, poultry, milk and eggs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General Directorate of Economic Statistics, (AFFILIATION: Government of Mexico) // Deputy General Directorate of Economic and Agricultural Censuses, (AFFILIATION: Government of Mexico)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Institute of Statistics, Geography and Informatics (Government of Mexico)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Institute of Statistic and Geography (INEGI) // Ministry of Agriculture, Livestock, Rural Development, Fisheries and Food (INEGI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Agricultural Survey 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Institute of Statistic and Geography</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The universe for ENA 2014 was made up of 75,221 production units, from the 3.77 million units captured by the 2007 Agricultural Census that reported information in relation to any of the products of national interest or by federal entity. The universe was defined from the 34 products of national interest selected for the survey, 29 of which are annual and perennial crops and the rest corresponds to livestock species and products of economic importance for the country. Likewise, in this universe, 9 products were considered that are representative in some federal entities, but not nationally. Below are the products that form the universe of the ENA 2014.
+The crops that were the object of the survey were: white grain corn, yellow grain corn, fodder corn, sugar cane, wheat grain, avocado, sorghum grain, beans, chili, alfalfa, tomato, potato, melon, watermelon, coffee, orange, grape, banana, lemon, mango, onion, pumpkin, green tomato, cotton, apple, cocoa, rice, barley and soy. While the species and livestock products were made up of: cattle, pigs, poultry, milk and eggs.
+The 8 products with representativeness in some states were: Pine, Guava, Coconut, Nopal vegetable, Agave, Strawberry, Sorghum Forage and Oats Forage.
+It should be noted that of the annual and perennial crops that formed the universe for the survey; yellow corn, green tomato, pine, coconut and prickly pear vegetable crops were not published due to their low prevalence, resulting in lack of representativity at national or state level.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Institute of Statistic and Geography (Government of Mexico)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Agricultural Survey 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The universe for ENA 2012 was made up of 97,442 production units from the 3.94 million units captured by the 2007 Agricultural Census. This universe was defined from the 33 products of interest selected for the survey, 29 which are annual and perennial crops and the rest corresponds to livestock species of economic importance for the country. The products include: Corn, Fodder, Sugarcane, Grasses, Wheat, Avocado, Sorghum, Beans, Chili, Alfalfa, Tomato, Potato, Melon and Watermelon, Coffee, Orange, Grape, Banana, Lemon, Mango, Onion, Pumpkin, Green Tomato, Cotton, Apple, Cocoa, Rice, Barley, Soy, Forage Oats, Cattle, Swine, Poultry and Egg.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General Directorate of Economic Statistics, (AFFILIATION: Government of Mexico) // Deputy General Directorate of Economic and Agricultural Censuses, (AFFILIATION: Government of Mexico) // Directorate of Census and Agricultural Surveys, (AFFILIATION: Government of Mexico)</t>
+  </si>
+  <si>
     <t xml:space="preserve">2048</t>
   </si>
   <si>
@@ -245,6 +461,33 @@
     <t xml:space="preserve">National Federation of Pastoralist User Groups, Pastoralist Knowledge Hub (Food and Agriculture Organization)</t>
   </si>
   <si>
+    <t xml:space="preserve">2079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pilot Agriculture Integrated Survey, 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central Bureau of Statistics, Ministry of Agriculture and Livestock Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The survey covers both commercial and non-commercial algriculture holdings in Chitwan district.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statistics Office, Chitwan (AFFILIATION: CBS, ROLE: Field operation) // Agriculture Knowledge Centre, Chitwan (AFFILIATION: MoALD, ROLE: Field operation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central Bureau of Statistics (Government of Nepal), Ministry of Agriculture and Livestock Development (Government of Nepal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food and Agriculture Organization of United Nations (FAO), ROLE: Financial and technical support // Bill and Melinda Gates Foundation (FAO), ROLE: Financial support // Italian Cooperation (FAO), ROLE: Financial support</t>
+  </si>
+  <si>
     <t xml:space="preserve">1370</t>
   </si>
   <si>
@@ -290,54 +533,258 @@
     <t xml:space="preserve">Roberto Castillo (FLACSO Secretaría General), Yadira Adames (FLACSO Secretaría General), Stella Saenz (FLACSO Secretaría General)</t>
   </si>
   <si>
+    <t xml:space="preserve">1309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Agricultural Survey 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Institute of Statistics and Informatics, National Directorate of Censuses and Surveys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The survey covers all agricultural holdings within the country that are less than 50 ha and the agricultural holdings that are agricultural or farming enterprises, as well as enterprises and large producers (Special Stratum).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ministry of Agriculture and Irrigation (AFFILIATION: PCM, ROLE: Technical Evaluation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Institute of Statistics and Informatics (PCM), National Directorate of Censuses and Surveys (INEI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ministry of Economics and Finance (MEF)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The survey covers all the agricultural units of the country with less than 50 ha and the agricultural units that are agricultural or farming enterprises.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ministry of Agriculture and Irrigation (AFFILIATION: Government of Peru, ROLE: Technical Assistance) // Ministry of Economy and Finance (AFFILIATION: Government of Peru, ROLE: Technical Assistance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Institute of Statistics and Informatics (Government of Peru), National Directorate of Censuses and Surveys (National Institute of Statistics and Informatics)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ministry of Economic and Finance (MEF), ROLE: Financing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Agricultural Survey 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ministry of Economic anad Financing (MEF), ROLE: Financing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Agricultural Survey 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The survey covers all agricultural holdings within the country that are less than 50 ha and the agricultural units that are agricultural or farming enterprises.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ministry of Agriculture and Irrigation (AFFILIATION: PCM, ROLE: Technical Evaluation) // Ministry of Economics and Finance (AFFILIATION: PCM, ROLE: Technical Evaluation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Institute of Statistics and Informatics (INEI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The survey covers all agricultural holdings within the country that are less than 50 ha and the agricultural units that are agricultural or farming enterprises</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ministry of Economics and Finance (AFFILIATION: PCM, ROLE: Technical Evaluation) // Ministry of Agriculture and Irrigation (AFFILIATION: PCM, ROLE: Technical Evaluation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Institute of Statistics and Informatics (PCM), National Directorate of Censuses and Surveys (PCM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rwanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RWA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rwanda Season Agriculture Survey 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Institute of Statistics of Rwanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small scale agricultural farms and large scale farms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The SAS 2023 targeted potential agricultural land and large-scale farmers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Institute of Statistics of Rwanda (Ministry of Finance and Economic Planning)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rwanda Season Agriculture Survey 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rwanda Season Agriculture Survey 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Institute of Statitics of Rwanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Institute of Statitics of Rwanda (Ministry of Finance and Economic Planning)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rwanda Seasonal Agriculture Survey 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The RSAS 2020 targeted potential agriicultural land and large scale farmers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Institute of Statistics of Rwanda (AFFILIATION: Ministry of Finance and Economic Planning, ROLE: Main producer) // Ministry of Agriculture and Animal Resources (AFFILIATION: Government of Rwanda, ROLE: Technical partner) // Rwanda Agricultural Board (AFFILIATION: Ministry of Agriculture and Animal Resources, ROLE: Technical partner) // National Agriculture Export Board (AFFILIATION: Ministry of Agriculture and Animal Resources, ROLE: Technical partner)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Government of Rwanda (GoR), ROLE: Funding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rwanda Seasonal Agriculture Survey 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The RSAS 2019 targeted potential agriicultural land and large scale farmers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ministry of Agriculture and Animal Resources (AFFILIATION: Government of Rwanda, ROLE: Technical partner) // Rwanda Agricultural Board (AFFILIATION: Ministry of Agriculture and Animal Resources, ROLE: Technical partner)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Government of Rwanda (GoR), ROLE: Funder</t>
+  </si>
+  <si>
     <t xml:space="preserve">1830</t>
   </si>
   <si>
-    <t xml:space="preserve">Rwanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RWA</t>
-  </si>
-  <si>
     <t xml:space="preserve">Agricultural Household Survey 2017</t>
   </si>
   <si>
-    <t xml:space="preserve">National Institute of Statistics of Rwanda</t>
-  </si>
-  <si>
     <t xml:space="preserve">All household members</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Agriculture and Animal Resources, (AFFILIATION: Government of Rwanda)</t>
   </si>
   <si>
-    <t xml:space="preserve">National Institute of Statistics of Rwanda (Ministry of Finance and Economic Planning)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Government of Rwanda (GoR), ROLE: Funding</t>
+    <t xml:space="preserve">1766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rwanda Seasonal Agriculture Survey 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The RSAS 2018 targeted potential agricultural land and large scale farmers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ministry of Agriculture and Animal Resources (AFFILIATION: Government of Rwanda, ROLE: Technical partner) // National Agriculture Export Board (AFFILIATION: Government of Rwanda, ROLE: Technical partner) // Rwanda Agricultural Board (AFFILIATION: Government of Rwanda, ROLE: Technical partner) // Rwanda Environmental Management Authority (AFFILIATION: Government of Rwanda, ROLE: Technical partner)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rwanda Seasonal Agriculture Survey 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The 2016 RSAS targeted agricultural operators and large scale farmers operating in Rwanda.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ministry of Agriculture and Animal Resources (AFFILIATION: Government of Rwanda, ROLE: Technical partner) // National Agriculture Export Board (AFFILIATION: Government of Rwanda, ROLE: Technical partner) // Rwanda Agricultural Board (AFFILIATION: Government of Rwanda, ROLE: Technical partner) // Rwanda Natural Resources Authority (AFFILIATION: Government of Rwanda, ROLE: Technical partner) // Rwanda Environmental Management Authority (AFFILIATION: Government of Rwanda, ROLE: Technical partner) // National Bank of Rwanda (AFFILIATION: Government of Rwanda, ROLE: Technical partner)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Government of Rwanda (GoR), ROLE: Funder // The World Bank (GoR), ROLE: Funding partner // Uk aid (GoR), ROLE: Funding partner // European Union (GoR), ROLE: Funding partner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rwanda Seasonal Agriculture Survey 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The RSAS 2015 targeted agricultural operators and large scale farmers operating in Rwanda.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rwanda Seasonal Agriculture Survey 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Institute of Statistics of Rwanda, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The RSAS 2014 targeted agricultural operators and large scale farmers operating in Rwanda.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Government of Rwanda (GoR), ROLE: Funder // The World Bank (GoR), ROLE: Funding Partner // UK Aid (GoR), ROLE: Funding Partner // European Union (GoR), ROLE: Funding Partner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rwanda Seasonal Agriculture Survey 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The RSAS 2013 targeted agricultural operators and large scale farmers operating in Rwanda.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senegal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annual Agricultural Survey 2022-2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Directorate of Analysis, Forecasting and Agricultural Statistics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Households and agricultural plots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The agricultural survey covers all households and plots in the 45 departments of Senegal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Directorate of Analysis, Forecasting and Agricultural Statistics (Ministry of Agriculture, Rural Development and Food Sovereignty)</t>
   </si>
   <si>
     <t xml:space="preserve">2418</t>
   </si>
   <si>
-    <t xml:space="preserve">Senegal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEN</t>
-  </si>
-  <si>
     <t xml:space="preserve">Annual Agricultural Survey 2021-2022</t>
   </si>
   <si>
-    <t xml:space="preserve">50x2030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Directorate of Analysis, Forecasting and Agricultural Statistics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The agricultural survey covers all households and plots in the 45 departments of Senegal.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Research and Planning Unit (AFFILIATION: Ministry of Livestock and Animal Production, ROLE: Support in the development of the questionnaire) // National Agency for Statistics and Demography (AFFILIATION: Ministry of Economy, Finance and Planning, ROLE: Participation in training) // Directorate of Horticulture (AFFILIATION: Ministry of Agriculture, Rural Development and Food Security, ROLE: Participation in training)</t>
   </si>
   <si>
@@ -389,7 +836,133 @@
     <t xml:space="preserve">BRAIST ()</t>
   </si>
   <si>
-    <t xml:space="preserve">2350</t>
+    <t xml:space="preserve">1001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annual Agricultural Survey 2017-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Directorate of Agricultural Analysis, Forecasting and Statistics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The survey covers all households and agricultural plots in the 42 districts of the country.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horticulture Department (AFFILIATION: Ministry of Agriculture and Rural Development, ROLE: Support in questionnaire development, investigator training and supervision) // National Agency for Statistics and Demography (AFFILIATION: Ministry of Economy, Finance and Planning, ROLE: Support in questionnaire development, investigator training and supervision) // Studies and Planning Unit of the Ministry of Livestock (AFFILIATION: Ministry of Livestock and Animal Production, ROLE: Support in questionnaire development, investigator training and supervision)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Directorate of Agricultural Analysis, Forecasting and Statistics (Ministry of Agriculture and Rural Development)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United States Agency for International Development (USAID), ROLE: Main donor of the AGRISurvey program in Senegal // Food and Agriculture Organization of the United Nations (USAID), ROLE: Technical and Financial Assistance // Government of Senegal (USAID), ROLE: Financing of staff and collection material</t>
+  </si>
+  <si>
+    <t xml:space="preserve">996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annual Agricultural Survey 2011-2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Directorate of Analysis, Forecasting and Statistics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All agricultural households drawn from the primary units (Census districts).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Directorate of Analysis, Forecasting and Statistics (Ministry of Agriculture and Rural Development)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Government of Senegal (GoS), ROLE: Staff and local funding // Economic Growth Project (USAID) (GoS), ROLE: Declining financing up to 60%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annual Agricultural Survey 2007-2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All agricultural households</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Directorate of Analysis, Forecasting and Statistics (Ministry of Agriculture and Food Security)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Government of Senegal (), ROLE: Staff and local funding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annual Agricultural Survey 2006-2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sierra Leone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Women’s Empowerment and Nutrition Survey 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Government of Sierra Leone, Statistics Sierra Leone, Ministry of Agriculture and Food Security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agricultural households</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Male and female members living in agricultural households aged between 18 and 64 years.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ministry of Agriculture and Food Security (Government of Sierra Leone)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sierra Leone Agriculture Household Listing Survey 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statistics Sierra Leone, Ministry of Agriculture and Food Security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statistics Sierra Leone (Government of Sierra Leone), Ministry of Agriculture and Food Security (Government of Sierra Leone)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sri Lanka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LKA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sri Lanka Paddy Farmers Survey 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agrifood Economics and Policy Division (ESA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agrifood Economics and Policy Division (ESA) (Food and Agriculture Organization of the United Nations)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sri Lanka Paddy Farmers Survey 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sri Lanka Paddy Farmers Survey 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2648</t>
   </si>
   <si>
     <t xml:space="preserve">Uganda</t>
@@ -398,19 +971,25 @@
     <t xml:space="preserve">UGA</t>
   </si>
   <si>
-    <t xml:space="preserve">National Panel Survey 2019-2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uganda Bureau of Statistics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Households, Individual, Parcel, Plot, Community</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uganda Bureau of Statistics (Government of Uganda)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Government of Uganda () // World Bank Living Standards Measurement Study - Integrated Surveys on Agriculture (LSMS-ISA) () // Government of Netherlands ()</t>
+    <t xml:space="preserve">Annual Agricultural Survey, 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uganda Bureau of Statistics (UBOS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agricultural households (i.e. agricultural holdings in the household sector)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agricultural households (i.e. agricultural holdings in the household sector).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uganda Bureau of Statistics (UBOS) (Government of Uganda)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annual Agricultural Survey, 2019.</t>
   </si>
   <si>
     <t xml:space="preserve">1652</t>
@@ -419,21 +998,12 @@
     <t xml:space="preserve">Annual Agricultural Survey, 2018 (Second Season).</t>
   </si>
   <si>
-    <t xml:space="preserve">Uganda Bureau of Statistics (UBOS)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Agriculture Integrated Survey[AGRISurvey]</t>
   </si>
   <si>
-    <t xml:space="preserve">Agricultural households (i.e. agricultural holdings in the household sector)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Food and Agriculture Organization (AFFILIATION: United Nations, ROLE: Provided technical assistance and trainings to UBOS)</t>
   </si>
   <si>
-    <t xml:space="preserve">Uganda Bureau of Statistics (UBOS) (Government of Uganda)</t>
-  </si>
-  <si>
     <t xml:space="preserve">United States Agency for International Development (USAID), ROLE: Main donor for the AGRISurvey program in Uganda</t>
   </si>
   <si>
@@ -450,6 +1020,95 @@
   </si>
   <si>
     <t xml:space="preserve">Uganda Bureau of Statistics, (AFFILIATION: Government of Uganda)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Republic of Tanzania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annual Agricultural Sample Survey 2023-2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Bureau of Statistics, Office of the Chief Government Statistician</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Households for Smallholder Farmers and Farm for Large Scale Farms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The survey covered agricultural households and large-scale farms.
+Agricultural households are those that meet one or more of the following two conditions:
+a) Have or operate at least 25 square meters of arable land.
+b) Own or keep at least one head of cattle or five goats/sheep/pigs or fifty chicken/ducks/turkeys during the agriculture year.
+Large-scale farms are those farms with at least 20 hectares of cultivated land, or 50 herds of cattle, or 100 goats/sheep/pigs, or 1000 chickens. In addition to this, they should fulfill all of the following four conditions:
+i) The greater part of the produce should go to the market.
+ii) Operation of farm should be continuous.
+iii) There should be application of machinery / implements on the farm.
+iv) There should be at least one permanent employee.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Bureau of Statistics (Government of Tanzania), Office of the Chief Government Statistician (The Revolutionary Government of Zanzibar)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annual Agricultural Sample Survey 2022/23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The survey covered agricultural households and large-scale farms.
+Agricultural households are those that meet one or more of the following two conditions:
+a) Have or operate at least 25 square meters of arable land,
+b) Own or keep at least one head of cattle or five goats/sheep/pigs or fifty chicken/ducks/turkeys during the agriculture year.
+Large-scale farms are those farms with at least 20 hectares of cultivated land, or 50 herds of cattle, or 100 goats/sheep/pigs, or 1,000 chickens. 
+In addition to this, they should fulfill all of the following four conditions:
+i) The greater part of the produce should go to the market,
+ii) Operation of farm should be continuous,
+iii) There should be application of machinery / implements on the farm, and
+iv) There should be at least one permanent employee.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annual Agricultural Sample Survey 2014-2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm operators.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ministry of Livestock and Fisheries, Zanzibar (AFFILIATION: The Revolutionary Government of Zanzibar, ROLE: Technical assistance) // President’s Office, Regional Administration and Local Governments (AFFILIATION: The Government of Tanzania, ROLE: Technical assistance) // Ministry of Industries, Trade and Investment (AFFILIATION: The Government of Tanzania, ROLE: Technical assistance) // The United States Agency for International Development (AFFILIATION: United Nation, ROLE: Technical assistance) // United States Department of Agriculture (AFFILIATION: United Nation, ROLE: Technical assistance) // Ministry of Agriculture, Livestock and Fisheries; Ministry of Agriculture and Natural Resource (AFFILIATION: The Revolutionary Government of Zanzibar, ROLE: Technical assistance) // Ministry of Agriculture, Food Security and Cooperatives (AFFILIATION: The Government of Tanzania, ROLE: Technical assistance) // Ministry of Livestock and Fisheries Development (AFFILIATION: The Government of Tanzania, ROLE: Technical assistance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Bureau of Statistics (Government of Tanzania), Office of the Chief Government Statistician (Government of Zanzibar)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Government of Tanzania (), ROLE: Financial Support // United States Agency for International Development (), ROLE: Financial Support // United States Department of Agriculture (), ROLE: Financial Support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costa Rica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encuesta Nacional Agropecuaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.fao.org/documents/card/en/c/cb3976en</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGRISurvey Nation-wide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.fao.org/in-action/agrisurvey/country-work/nepal/en/</t>
   </si>
 </sst>
 </file>
@@ -833,653 +1492,601 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
       </c>
       <c r="D2" t="n">
         <v>2019</v>
       </c>
       <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
         <v>25</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>26</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>27</v>
       </c>
-      <c r="L2" t="s">
-        <v>28</v>
-      </c>
       <c r="M2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" t="s">
         <v>29</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>30</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>31</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>32</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
         <v>34</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>35</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E3" t="s">
         <v>36</v>
       </c>
-      <c r="D3" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
         <v>37</v>
       </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K3"/>
+      <c r="L3" t="s">
         <v>38</v>
       </c>
-      <c r="K3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" t="s">
-        <v>28</v>
-      </c>
       <c r="M3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" t="s">
-        <v>30</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="N3"/>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q3" t="s">
-        <v>33</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D4" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K4"/>
+        <v>48</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
       <c r="L4" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="M4" t="s">
-        <v>46</v>
-      </c>
-      <c r="N4"/>
-      <c r="O4" t="s">
-        <v>47</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="N4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4"/>
       <c r="P4" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>49</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="Q4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D5" t="n">
-        <v>2017</v>
+        <v>2023</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K5" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="L5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N5" t="s">
-        <v>56</v>
-      </c>
-      <c r="O5" t="s">
-        <v>57</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="O5"/>
       <c r="P5" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>59</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="Q5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" t="s">
+        <v>63</v>
+      </c>
+      <c r="M6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" t="s">
+        <v>64</v>
+      </c>
+      <c r="O6"/>
+      <c r="P6" t="s">
         <v>60</v>
       </c>
-      <c r="B6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2016</v>
-      </c>
-      <c r="E6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" t="s">
-        <v>64</v>
-      </c>
-      <c r="K6"/>
-      <c r="L6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" t="s">
-        <v>65</v>
-      </c>
-      <c r="O6" t="s">
-        <v>66</v>
-      </c>
-      <c r="P6" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>68</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" t="s">
+        <v>68</v>
+      </c>
+      <c r="O7"/>
+      <c r="P7" t="s">
         <v>69</v>
       </c>
-      <c r="B7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" t="s">
-        <v>73</v>
-      </c>
-      <c r="K7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" t="s">
-        <v>74</v>
-      </c>
-      <c r="O7" t="s">
-        <v>75</v>
-      </c>
-      <c r="P7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>33</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" t="s">
+        <v>74</v>
+      </c>
+      <c r="M8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8"/>
+      <c r="O8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P8" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q8" t="s">
         <v>77</v>
-      </c>
-      <c r="B8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2015</v>
-      </c>
-      <c r="E8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" t="s">
-        <v>81</v>
-      </c>
-      <c r="K8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M8" t="s">
-        <v>29</v>
-      </c>
-      <c r="N8" t="s">
-        <v>82</v>
-      </c>
-      <c r="O8"/>
-      <c r="P8" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>84</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D9" t="n">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="E9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J9" t="s">
-        <v>89</v>
-      </c>
-      <c r="K9"/>
+        <v>82</v>
+      </c>
+      <c r="K9" t="s">
+        <v>26</v>
+      </c>
       <c r="L9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M9" t="s">
-        <v>46</v>
-      </c>
-      <c r="N9"/>
+        <v>28</v>
+      </c>
+      <c r="N9" t="s">
+        <v>29</v>
+      </c>
       <c r="O9" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="Q9" t="s">
-        <v>49</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D10" t="n">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="E10" t="s">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J10" t="s">
-        <v>96</v>
-      </c>
-      <c r="K10" t="s">
+        <v>88</v>
+      </c>
+      <c r="K10"/>
+      <c r="L10" t="s">
         <v>27</v>
       </c>
-      <c r="L10" t="s">
-        <v>28</v>
-      </c>
       <c r="M10" t="s">
-        <v>29</v>
-      </c>
-      <c r="N10" t="s">
-        <v>97</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="N10"/>
       <c r="O10" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="Q10" t="s">
-        <v>100</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K11" t="s">
+        <v>96</v>
+      </c>
+      <c r="L11" t="s">
+        <v>97</v>
+      </c>
+      <c r="M11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11" t="s">
+        <v>98</v>
+      </c>
+      <c r="O11" t="s">
+        <v>99</v>
+      </c>
+      <c r="P11" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q11" t="s">
         <v>101</v>
-      </c>
-      <c r="B11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2022</v>
-      </c>
-      <c r="E11" t="s">
-        <v>104</v>
-      </c>
-      <c r="F11" t="s">
-        <v>105</v>
-      </c>
-      <c r="G11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" t="s">
-        <v>106</v>
-      </c>
-      <c r="K11" t="s">
-        <v>27</v>
-      </c>
-      <c r="L11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M11" t="s">
-        <v>29</v>
-      </c>
-      <c r="N11" t="s">
-        <v>107</v>
-      </c>
-      <c r="O11" t="s">
-        <v>108</v>
-      </c>
-      <c r="P11" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>110</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D12" t="n">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="E12" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F12" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="G12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J12" t="s">
         <v>106</v>
       </c>
       <c r="K12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L12" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="M12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O12" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="P12" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="Q12" t="s">
-        <v>110</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E13" t="s">
         <v>115</v>
       </c>
-      <c r="B13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" t="s">
         <v>116</v>
       </c>
-      <c r="F13" t="s">
-        <v>105</v>
-      </c>
-      <c r="G13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" t="s">
-        <v>106</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="K13"/>
+      <c r="L13" t="s">
         <v>27</v>
       </c>
-      <c r="L13" t="s">
-        <v>28</v>
-      </c>
       <c r="M13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N13" t="s">
         <v>117</v>
@@ -1488,160 +2095,157 @@
         <v>118</v>
       </c>
       <c r="P13" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="Q13" t="s">
-        <v>119</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="D14" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E14" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J14" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="K14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L14" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="M14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N14" t="s">
-        <v>123</v>
-      </c>
-      <c r="O14"/>
+        <v>126</v>
+      </c>
+      <c r="O14" t="s">
+        <v>127</v>
+      </c>
       <c r="P14" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="Q14" t="s">
-        <v>124</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B15" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E15" t="s">
+        <v>131</v>
+      </c>
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" t="s">
+        <v>132</v>
+      </c>
+      <c r="K15" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M15" t="s">
+        <v>28</v>
+      </c>
+      <c r="N15" t="s">
+        <v>133</v>
+      </c>
+      <c r="O15" t="s">
         <v>127</v>
       </c>
-      <c r="D15" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E15" t="s">
-        <v>128</v>
-      </c>
-      <c r="F15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I15" t="s">
-        <v>25</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="P15" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q15" t="s">
         <v>129</v>
-      </c>
-      <c r="K15" t="s">
-        <v>27</v>
-      </c>
-      <c r="L15" t="s">
-        <v>130</v>
-      </c>
-      <c r="M15" t="s">
-        <v>29</v>
-      </c>
-      <c r="N15"/>
-      <c r="O15"/>
-      <c r="P15" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>132</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B16" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C16" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D16" t="n">
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="E16" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F16" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="G16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J16" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="K16" t="s">
-        <v>136</v>
+        <v>26</v>
       </c>
       <c r="L16" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="M16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N16" t="s">
         <v>137</v>
@@ -1650,68 +2254,2176 @@
         <v>138</v>
       </c>
       <c r="P16" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="Q16" t="s">
-        <v>140</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" t="s">
         <v>141</v>
       </c>
-      <c r="B17" t="s">
-        <v>126</v>
-      </c>
-      <c r="C17" t="s">
-        <v>127</v>
-      </c>
       <c r="D17" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="E17" t="s">
         <v>142</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J17" t="s">
         <v>143</v>
       </c>
       <c r="K17" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" t="s">
+        <v>28</v>
+      </c>
+      <c r="N17" t="s">
         <v>144</v>
       </c>
-      <c r="L17" t="s">
-        <v>28</v>
-      </c>
-      <c r="M17" t="s">
-        <v>29</v>
-      </c>
-      <c r="N17"/>
       <c r="O17" t="s">
         <v>145</v>
       </c>
       <c r="P17" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q17" t="s">
-        <v>143</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1</v>
-      </c>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" t="s">
+        <v>149</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E18" t="s">
+        <v>150</v>
+      </c>
+      <c r="F18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" t="s">
+        <v>151</v>
+      </c>
+      <c r="K18" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" t="s">
+        <v>38</v>
+      </c>
+      <c r="M18" t="s">
+        <v>28</v>
+      </c>
+      <c r="N18" t="s">
+        <v>152</v>
+      </c>
+      <c r="O18" t="s">
+        <v>153</v>
+      </c>
+      <c r="P18" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>156</v>
+      </c>
+      <c r="B19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C19" t="s">
+        <v>158</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2015</v>
+      </c>
+      <c r="E19" t="s">
+        <v>159</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" t="s">
+        <v>160</v>
+      </c>
+      <c r="K19" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M19" t="s">
+        <v>28</v>
+      </c>
+      <c r="N19" t="s">
+        <v>161</v>
+      </c>
+      <c r="O19"/>
+      <c r="P19" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>164</v>
+      </c>
+      <c r="B20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C20" t="s">
+        <v>166</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E20" t="s">
+        <v>167</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" t="s">
+        <v>168</v>
+      </c>
+      <c r="K20"/>
+      <c r="L20" t="s">
+        <v>27</v>
+      </c>
+      <c r="M20" t="s">
+        <v>39</v>
+      </c>
+      <c r="N20"/>
+      <c r="O20" t="s">
+        <v>169</v>
+      </c>
+      <c r="P20" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>171</v>
+      </c>
+      <c r="B21" t="s">
+        <v>172</v>
+      </c>
+      <c r="C21" t="s">
+        <v>173</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E21" t="s">
+        <v>174</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" t="s">
+        <v>175</v>
+      </c>
+      <c r="K21" t="s">
+        <v>26</v>
+      </c>
+      <c r="L21" t="s">
+        <v>38</v>
+      </c>
+      <c r="M21" t="s">
+        <v>28</v>
+      </c>
+      <c r="N21" t="s">
+        <v>176</v>
+      </c>
+      <c r="O21" t="s">
+        <v>177</v>
+      </c>
+      <c r="P21" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>180</v>
+      </c>
+      <c r="B22" t="s">
+        <v>172</v>
+      </c>
+      <c r="C22" t="s">
+        <v>173</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E22" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" t="s">
+        <v>175</v>
+      </c>
+      <c r="K22" t="s">
+        <v>26</v>
+      </c>
+      <c r="L22" t="s">
+        <v>38</v>
+      </c>
+      <c r="M22" t="s">
+        <v>28</v>
+      </c>
+      <c r="N22" t="s">
+        <v>181</v>
+      </c>
+      <c r="O22" t="s">
+        <v>182</v>
+      </c>
+      <c r="P22" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>185</v>
+      </c>
+      <c r="B23" t="s">
+        <v>172</v>
+      </c>
+      <c r="C23" t="s">
+        <v>173</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E23" t="s">
+        <v>186</v>
+      </c>
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" t="s">
+        <v>175</v>
+      </c>
+      <c r="K23" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" t="s">
+        <v>38</v>
+      </c>
+      <c r="M23" t="s">
+        <v>28</v>
+      </c>
+      <c r="N23" t="s">
+        <v>181</v>
+      </c>
+      <c r="O23" t="s">
+        <v>182</v>
+      </c>
+      <c r="P23" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>188</v>
+      </c>
+      <c r="B24" t="s">
+        <v>172</v>
+      </c>
+      <c r="C24" t="s">
+        <v>173</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2015</v>
+      </c>
+      <c r="E24" t="s">
+        <v>189</v>
+      </c>
+      <c r="F24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" t="s">
+        <v>175</v>
+      </c>
+      <c r="K24" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" t="s">
+        <v>38</v>
+      </c>
+      <c r="M24" t="s">
+        <v>28</v>
+      </c>
+      <c r="N24" t="s">
+        <v>190</v>
+      </c>
+      <c r="O24" t="s">
+        <v>191</v>
+      </c>
+      <c r="P24" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>193</v>
+      </c>
+      <c r="B25" t="s">
+        <v>172</v>
+      </c>
+      <c r="C25" t="s">
+        <v>173</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E25" t="s">
+        <v>131</v>
+      </c>
+      <c r="F25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" t="s">
+        <v>175</v>
+      </c>
+      <c r="K25" t="s">
+        <v>26</v>
+      </c>
+      <c r="L25" t="s">
+        <v>38</v>
+      </c>
+      <c r="M25" t="s">
+        <v>28</v>
+      </c>
+      <c r="N25" t="s">
+        <v>194</v>
+      </c>
+      <c r="O25" t="s">
+        <v>195</v>
+      </c>
+      <c r="P25" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>197</v>
+      </c>
+      <c r="B26" t="s">
+        <v>198</v>
+      </c>
+      <c r="C26" t="s">
+        <v>199</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E26" t="s">
+        <v>200</v>
+      </c>
+      <c r="F26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" t="s">
+        <v>24</v>
+      </c>
+      <c r="J26" t="s">
+        <v>201</v>
+      </c>
+      <c r="K26" t="s">
+        <v>26</v>
+      </c>
+      <c r="L26" t="s">
+        <v>202</v>
+      </c>
+      <c r="M26" t="s">
+        <v>28</v>
+      </c>
+      <c r="N26" t="s">
+        <v>203</v>
+      </c>
+      <c r="O26"/>
+      <c r="P26" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q26"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>205</v>
+      </c>
+      <c r="B27" t="s">
+        <v>198</v>
+      </c>
+      <c r="C27" t="s">
+        <v>199</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E27" t="s">
+        <v>206</v>
+      </c>
+      <c r="F27" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" t="s">
+        <v>201</v>
+      </c>
+      <c r="K27" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27" t="s">
+        <v>38</v>
+      </c>
+      <c r="M27" t="s">
+        <v>28</v>
+      </c>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q27"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>207</v>
+      </c>
+      <c r="B28" t="s">
+        <v>198</v>
+      </c>
+      <c r="C28" t="s">
+        <v>199</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E28" t="s">
+        <v>208</v>
+      </c>
+      <c r="F28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" t="s">
+        <v>209</v>
+      </c>
+      <c r="K28" t="s">
+        <v>26</v>
+      </c>
+      <c r="L28" t="s">
+        <v>38</v>
+      </c>
+      <c r="M28" t="s">
+        <v>28</v>
+      </c>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>211</v>
+      </c>
+      <c r="B29" t="s">
+        <v>198</v>
+      </c>
+      <c r="C29" t="s">
+        <v>199</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E29" t="s">
+        <v>212</v>
+      </c>
+      <c r="F29" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" t="s">
+        <v>201</v>
+      </c>
+      <c r="K29" t="s">
+        <v>26</v>
+      </c>
+      <c r="L29" t="s">
+        <v>38</v>
+      </c>
+      <c r="M29" t="s">
+        <v>28</v>
+      </c>
+      <c r="N29" t="s">
+        <v>213</v>
+      </c>
+      <c r="O29" t="s">
+        <v>214</v>
+      </c>
+      <c r="P29" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>216</v>
+      </c>
+      <c r="B30" t="s">
+        <v>198</v>
+      </c>
+      <c r="C30" t="s">
+        <v>199</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E30" t="s">
+        <v>217</v>
+      </c>
+      <c r="F30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" t="s">
+        <v>23</v>
+      </c>
+      <c r="I30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" t="s">
+        <v>201</v>
+      </c>
+      <c r="K30" t="s">
+        <v>26</v>
+      </c>
+      <c r="L30" t="s">
+        <v>38</v>
+      </c>
+      <c r="M30" t="s">
+        <v>28</v>
+      </c>
+      <c r="N30" t="s">
+        <v>218</v>
+      </c>
+      <c r="O30" t="s">
+        <v>219</v>
+      </c>
+      <c r="P30" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>221</v>
+      </c>
+      <c r="B31" t="s">
+        <v>198</v>
+      </c>
+      <c r="C31" t="s">
+        <v>199</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E31" t="s">
+        <v>222</v>
+      </c>
+      <c r="F31" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" t="s">
+        <v>201</v>
+      </c>
+      <c r="K31" t="s">
+        <v>26</v>
+      </c>
+      <c r="L31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M31" t="s">
+        <v>28</v>
+      </c>
+      <c r="N31" t="s">
+        <v>223</v>
+      </c>
+      <c r="O31" t="s">
+        <v>224</v>
+      </c>
+      <c r="P31" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>225</v>
+      </c>
+      <c r="B32" t="s">
+        <v>198</v>
+      </c>
+      <c r="C32" t="s">
+        <v>199</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E32" t="s">
+        <v>226</v>
+      </c>
+      <c r="F32" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" t="s">
+        <v>23</v>
+      </c>
+      <c r="I32" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32" t="s">
+        <v>201</v>
+      </c>
+      <c r="K32" t="s">
+        <v>26</v>
+      </c>
+      <c r="L32" t="s">
+        <v>38</v>
+      </c>
+      <c r="M32" t="s">
+        <v>28</v>
+      </c>
+      <c r="N32" t="s">
+        <v>227</v>
+      </c>
+      <c r="O32" t="s">
+        <v>228</v>
+      </c>
+      <c r="P32" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>229</v>
+      </c>
+      <c r="B33" t="s">
+        <v>198</v>
+      </c>
+      <c r="C33" t="s">
+        <v>199</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E33" t="s">
+        <v>230</v>
+      </c>
+      <c r="F33" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" t="s">
+        <v>23</v>
+      </c>
+      <c r="I33" t="s">
+        <v>24</v>
+      </c>
+      <c r="J33" t="s">
+        <v>201</v>
+      </c>
+      <c r="K33" t="s">
+        <v>26</v>
+      </c>
+      <c r="L33" t="s">
+        <v>38</v>
+      </c>
+      <c r="M33" t="s">
+        <v>28</v>
+      </c>
+      <c r="N33" t="s">
+        <v>231</v>
+      </c>
+      <c r="O33" t="s">
+        <v>232</v>
+      </c>
+      <c r="P33" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>234</v>
+      </c>
+      <c r="B34" t="s">
+        <v>198</v>
+      </c>
+      <c r="C34" t="s">
+        <v>199</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2015</v>
+      </c>
+      <c r="E34" t="s">
+        <v>235</v>
+      </c>
+      <c r="F34" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" t="s">
+        <v>23</v>
+      </c>
+      <c r="I34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J34" t="s">
+        <v>201</v>
+      </c>
+      <c r="K34" t="s">
+        <v>26</v>
+      </c>
+      <c r="L34" t="s">
+        <v>38</v>
+      </c>
+      <c r="M34" t="s">
+        <v>28</v>
+      </c>
+      <c r="N34" t="s">
+        <v>236</v>
+      </c>
+      <c r="O34" t="s">
+        <v>232</v>
+      </c>
+      <c r="P34" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>237</v>
+      </c>
+      <c r="B35" t="s">
+        <v>198</v>
+      </c>
+      <c r="C35" t="s">
+        <v>199</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E35" t="s">
+        <v>238</v>
+      </c>
+      <c r="F35" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" t="s">
+        <v>23</v>
+      </c>
+      <c r="I35" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35" t="s">
+        <v>239</v>
+      </c>
+      <c r="K35" t="s">
+        <v>26</v>
+      </c>
+      <c r="L35" t="s">
+        <v>38</v>
+      </c>
+      <c r="M35" t="s">
+        <v>28</v>
+      </c>
+      <c r="N35" t="s">
+        <v>240</v>
+      </c>
+      <c r="O35" t="s">
+        <v>232</v>
+      </c>
+      <c r="P35" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>242</v>
+      </c>
+      <c r="B36" t="s">
+        <v>198</v>
+      </c>
+      <c r="C36" t="s">
+        <v>199</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E36" t="s">
+        <v>243</v>
+      </c>
+      <c r="F36" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" t="s">
+        <v>23</v>
+      </c>
+      <c r="I36" t="s">
+        <v>24</v>
+      </c>
+      <c r="J36" t="s">
+        <v>201</v>
+      </c>
+      <c r="K36" t="s">
+        <v>26</v>
+      </c>
+      <c r="L36" t="s">
+        <v>38</v>
+      </c>
+      <c r="M36" t="s">
+        <v>28</v>
+      </c>
+      <c r="N36" t="s">
+        <v>244</v>
+      </c>
+      <c r="O36" t="s">
+        <v>232</v>
+      </c>
+      <c r="P36" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>245</v>
+      </c>
+      <c r="B37" t="s">
+        <v>246</v>
+      </c>
+      <c r="C37" t="s">
+        <v>247</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E37" t="s">
+        <v>248</v>
+      </c>
+      <c r="F37" t="s">
+        <v>47</v>
+      </c>
+      <c r="G37" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" t="s">
+        <v>23</v>
+      </c>
+      <c r="I37" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" t="s">
+        <v>249</v>
+      </c>
+      <c r="K37" t="s">
+        <v>26</v>
+      </c>
+      <c r="L37" t="s">
+        <v>250</v>
+      </c>
+      <c r="M37" t="s">
+        <v>28</v>
+      </c>
+      <c r="N37" t="s">
+        <v>251</v>
+      </c>
+      <c r="O37"/>
+      <c r="P37" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q37"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>253</v>
+      </c>
+      <c r="B38" t="s">
+        <v>246</v>
+      </c>
+      <c r="C38" t="s">
+        <v>247</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E38" t="s">
+        <v>254</v>
+      </c>
+      <c r="F38" t="s">
+        <v>47</v>
+      </c>
+      <c r="G38" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" t="s">
+        <v>23</v>
+      </c>
+      <c r="I38" t="s">
+        <v>24</v>
+      </c>
+      <c r="J38" t="s">
+        <v>249</v>
+      </c>
+      <c r="K38" t="s">
+        <v>26</v>
+      </c>
+      <c r="L38" t="s">
+        <v>27</v>
+      </c>
+      <c r="M38" t="s">
+        <v>28</v>
+      </c>
+      <c r="N38" t="s">
+        <v>251</v>
+      </c>
+      <c r="O38" t="s">
+        <v>255</v>
+      </c>
+      <c r="P38" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>258</v>
+      </c>
+      <c r="B39" t="s">
+        <v>246</v>
+      </c>
+      <c r="C39" t="s">
+        <v>247</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E39" t="s">
+        <v>259</v>
+      </c>
+      <c r="F39" t="s">
+        <v>47</v>
+      </c>
+      <c r="G39" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" t="s">
+        <v>23</v>
+      </c>
+      <c r="I39" t="s">
+        <v>24</v>
+      </c>
+      <c r="J39" t="s">
+        <v>249</v>
+      </c>
+      <c r="K39" t="s">
+        <v>26</v>
+      </c>
+      <c r="L39" t="s">
+        <v>27</v>
+      </c>
+      <c r="M39" t="s">
+        <v>28</v>
+      </c>
+      <c r="N39" t="s">
+        <v>251</v>
+      </c>
+      <c r="O39" t="s">
+        <v>260</v>
+      </c>
+      <c r="P39" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>262</v>
+      </c>
+      <c r="B40" t="s">
+        <v>246</v>
+      </c>
+      <c r="C40" t="s">
+        <v>247</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E40" t="s">
+        <v>263</v>
+      </c>
+      <c r="F40" t="s">
+        <v>47</v>
+      </c>
+      <c r="G40" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40" t="s">
+        <v>23</v>
+      </c>
+      <c r="I40" t="s">
+        <v>24</v>
+      </c>
+      <c r="J40" t="s">
+        <v>249</v>
+      </c>
+      <c r="K40" t="s">
+        <v>26</v>
+      </c>
+      <c r="L40" t="s">
+        <v>27</v>
+      </c>
+      <c r="M40" t="s">
+        <v>28</v>
+      </c>
+      <c r="N40" t="s">
+        <v>264</v>
+      </c>
+      <c r="O40" t="s">
+        <v>265</v>
+      </c>
+      <c r="P40" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>267</v>
+      </c>
+      <c r="B41" t="s">
+        <v>246</v>
+      </c>
+      <c r="C41" t="s">
+        <v>247</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E41" t="s">
+        <v>268</v>
+      </c>
+      <c r="F41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41" t="s">
+        <v>23</v>
+      </c>
+      <c r="I41" t="s">
+        <v>24</v>
+      </c>
+      <c r="J41" t="s">
+        <v>269</v>
+      </c>
+      <c r="K41" t="s">
+        <v>26</v>
+      </c>
+      <c r="L41" t="s">
+        <v>27</v>
+      </c>
+      <c r="M41" t="s">
+        <v>28</v>
+      </c>
+      <c r="N41" t="s">
+        <v>270</v>
+      </c>
+      <c r="O41"/>
+      <c r="P41" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>272</v>
+      </c>
+      <c r="B42" t="s">
+        <v>246</v>
+      </c>
+      <c r="C42" t="s">
+        <v>247</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E42" t="s">
+        <v>273</v>
+      </c>
+      <c r="F42" t="s">
+        <v>47</v>
+      </c>
+      <c r="G42" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" t="s">
+        <v>23</v>
+      </c>
+      <c r="I42" t="s">
+        <v>24</v>
+      </c>
+      <c r="J42" t="s">
+        <v>274</v>
+      </c>
+      <c r="K42" t="s">
+        <v>26</v>
+      </c>
+      <c r="L42" t="s">
+        <v>38</v>
+      </c>
+      <c r="M42" t="s">
+        <v>28</v>
+      </c>
+      <c r="N42" t="s">
+        <v>275</v>
+      </c>
+      <c r="O42" t="s">
+        <v>276</v>
+      </c>
+      <c r="P42" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>279</v>
+      </c>
+      <c r="B43" t="s">
+        <v>246</v>
+      </c>
+      <c r="C43" t="s">
+        <v>247</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2011</v>
+      </c>
+      <c r="E43" t="s">
+        <v>280</v>
+      </c>
+      <c r="F43" t="s">
+        <v>21</v>
+      </c>
+      <c r="G43" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" t="s">
+        <v>23</v>
+      </c>
+      <c r="I43" t="s">
+        <v>24</v>
+      </c>
+      <c r="J43" t="s">
+        <v>281</v>
+      </c>
+      <c r="K43" t="s">
+        <v>26</v>
+      </c>
+      <c r="L43" t="s">
+        <v>38</v>
+      </c>
+      <c r="M43" t="s">
+        <v>28</v>
+      </c>
+      <c r="N43" t="s">
+        <v>282</v>
+      </c>
+      <c r="O43"/>
+      <c r="P43" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>285</v>
+      </c>
+      <c r="B44" t="s">
+        <v>246</v>
+      </c>
+      <c r="C44" t="s">
+        <v>247</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E44" t="s">
+        <v>286</v>
+      </c>
+      <c r="F44" t="s">
+        <v>21</v>
+      </c>
+      <c r="G44" t="s">
+        <v>22</v>
+      </c>
+      <c r="H44" t="s">
+        <v>23</v>
+      </c>
+      <c r="I44" t="s">
+        <v>24</v>
+      </c>
+      <c r="J44" t="s">
+        <v>281</v>
+      </c>
+      <c r="K44" t="s">
+        <v>26</v>
+      </c>
+      <c r="L44" t="s">
+        <v>38</v>
+      </c>
+      <c r="M44" t="s">
+        <v>28</v>
+      </c>
+      <c r="N44" t="s">
+        <v>287</v>
+      </c>
+      <c r="O44"/>
+      <c r="P44" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>290</v>
+      </c>
+      <c r="B45" t="s">
+        <v>246</v>
+      </c>
+      <c r="C45" t="s">
+        <v>247</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E45" t="s">
+        <v>291</v>
+      </c>
+      <c r="F45" t="s">
+        <v>21</v>
+      </c>
+      <c r="G45" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" t="s">
+        <v>23</v>
+      </c>
+      <c r="I45" t="s">
+        <v>24</v>
+      </c>
+      <c r="J45" t="s">
+        <v>281</v>
+      </c>
+      <c r="K45" t="s">
+        <v>26</v>
+      </c>
+      <c r="L45" t="s">
+        <v>38</v>
+      </c>
+      <c r="M45" t="s">
+        <v>28</v>
+      </c>
+      <c r="N45" t="s">
+        <v>287</v>
+      </c>
+      <c r="O45"/>
+      <c r="P45" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>292</v>
+      </c>
+      <c r="B46" t="s">
+        <v>293</v>
+      </c>
+      <c r="C46" t="s">
+        <v>294</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E46" t="s">
+        <v>295</v>
+      </c>
+      <c r="F46" t="s">
+        <v>47</v>
+      </c>
+      <c r="G46" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" t="s">
+        <v>23</v>
+      </c>
+      <c r="I46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J46" t="s">
+        <v>296</v>
+      </c>
+      <c r="K46" t="s">
+        <v>26</v>
+      </c>
+      <c r="L46" t="s">
+        <v>297</v>
+      </c>
+      <c r="M46" t="s">
+        <v>28</v>
+      </c>
+      <c r="N46" t="s">
+        <v>298</v>
+      </c>
+      <c r="O46"/>
+      <c r="P46" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q46"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>300</v>
+      </c>
+      <c r="B47" t="s">
+        <v>293</v>
+      </c>
+      <c r="C47" t="s">
+        <v>294</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E47" t="s">
+        <v>301</v>
+      </c>
+      <c r="F47" t="s">
+        <v>47</v>
+      </c>
+      <c r="G47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H47" t="s">
+        <v>23</v>
+      </c>
+      <c r="I47" t="s">
+        <v>24</v>
+      </c>
+      <c r="J47" t="s">
+        <v>302</v>
+      </c>
+      <c r="K47"/>
+      <c r="L47" t="s">
+        <v>27</v>
+      </c>
+      <c r="M47" t="s">
+        <v>28</v>
+      </c>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q47"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>304</v>
+      </c>
+      <c r="B48" t="s">
+        <v>305</v>
+      </c>
+      <c r="C48" t="s">
+        <v>306</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E48" t="s">
+        <v>307</v>
+      </c>
+      <c r="F48" t="s">
+        <v>21</v>
+      </c>
+      <c r="G48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H48" t="s">
+        <v>23</v>
+      </c>
+      <c r="I48" t="s">
+        <v>24</v>
+      </c>
+      <c r="J48" t="s">
+        <v>308</v>
+      </c>
+      <c r="K48" t="s">
+        <v>26</v>
+      </c>
+      <c r="L48" t="s">
+        <v>27</v>
+      </c>
+      <c r="M48" t="s">
+        <v>28</v>
+      </c>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q48"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>310</v>
+      </c>
+      <c r="B49" t="s">
+        <v>305</v>
+      </c>
+      <c r="C49" t="s">
+        <v>306</v>
+      </c>
+      <c r="D49" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E49" t="s">
+        <v>311</v>
+      </c>
+      <c r="F49" t="s">
+        <v>21</v>
+      </c>
+      <c r="G49" t="s">
+        <v>22</v>
+      </c>
+      <c r="H49" t="s">
+        <v>23</v>
+      </c>
+      <c r="I49" t="s">
+        <v>24</v>
+      </c>
+      <c r="J49" t="s">
+        <v>308</v>
+      </c>
+      <c r="K49" t="s">
+        <v>26</v>
+      </c>
+      <c r="L49" t="s">
+        <v>27</v>
+      </c>
+      <c r="M49" t="s">
+        <v>28</v>
+      </c>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q49"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>312</v>
+      </c>
+      <c r="B50" t="s">
+        <v>305</v>
+      </c>
+      <c r="C50" t="s">
+        <v>306</v>
+      </c>
+      <c r="D50" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E50" t="s">
+        <v>313</v>
+      </c>
+      <c r="F50" t="s">
+        <v>21</v>
+      </c>
+      <c r="G50" t="s">
+        <v>22</v>
+      </c>
+      <c r="H50" t="s">
+        <v>23</v>
+      </c>
+      <c r="I50" t="s">
+        <v>24</v>
+      </c>
+      <c r="J50" t="s">
+        <v>308</v>
+      </c>
+      <c r="K50" t="s">
+        <v>26</v>
+      </c>
+      <c r="L50" t="s">
+        <v>27</v>
+      </c>
+      <c r="M50" t="s">
+        <v>28</v>
+      </c>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q50"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>314</v>
+      </c>
+      <c r="B51" t="s">
+        <v>315</v>
+      </c>
+      <c r="C51" t="s">
+        <v>316</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E51" t="s">
+        <v>317</v>
+      </c>
+      <c r="F51" t="s">
+        <v>47</v>
+      </c>
+      <c r="G51" t="s">
+        <v>22</v>
+      </c>
+      <c r="H51" t="s">
+        <v>23</v>
+      </c>
+      <c r="I51" t="s">
+        <v>24</v>
+      </c>
+      <c r="J51" t="s">
+        <v>318</v>
+      </c>
+      <c r="K51" t="s">
+        <v>26</v>
+      </c>
+      <c r="L51" t="s">
+        <v>319</v>
+      </c>
+      <c r="M51" t="s">
+        <v>28</v>
+      </c>
+      <c r="N51" t="s">
+        <v>320</v>
+      </c>
+      <c r="O51"/>
+      <c r="P51" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q51"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>322</v>
+      </c>
+      <c r="B52" t="s">
+        <v>315</v>
+      </c>
+      <c r="C52" t="s">
+        <v>316</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E52" t="s">
+        <v>323</v>
+      </c>
+      <c r="F52" t="s">
+        <v>47</v>
+      </c>
+      <c r="G52" t="s">
+        <v>22</v>
+      </c>
+      <c r="H52" t="s">
+        <v>23</v>
+      </c>
+      <c r="I52" t="s">
+        <v>24</v>
+      </c>
+      <c r="J52" t="s">
+        <v>318</v>
+      </c>
+      <c r="K52" t="s">
+        <v>26</v>
+      </c>
+      <c r="L52" t="s">
+        <v>319</v>
+      </c>
+      <c r="M52" t="s">
+        <v>28</v>
+      </c>
+      <c r="N52" t="s">
+        <v>319</v>
+      </c>
+      <c r="O52"/>
+      <c r="P52" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q52"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>324</v>
+      </c>
+      <c r="B53" t="s">
+        <v>315</v>
+      </c>
+      <c r="C53" t="s">
+        <v>316</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E53" t="s">
+        <v>325</v>
+      </c>
+      <c r="F53" t="s">
+        <v>47</v>
+      </c>
+      <c r="G53" t="s">
+        <v>22</v>
+      </c>
+      <c r="H53" t="s">
+        <v>23</v>
+      </c>
+      <c r="I53" t="s">
+        <v>24</v>
+      </c>
+      <c r="J53" t="s">
+        <v>318</v>
+      </c>
+      <c r="K53" t="s">
+        <v>326</v>
+      </c>
+      <c r="L53" t="s">
+        <v>27</v>
+      </c>
+      <c r="M53" t="s">
+        <v>28</v>
+      </c>
+      <c r="N53" t="s">
+        <v>319</v>
+      </c>
+      <c r="O53" t="s">
+        <v>327</v>
+      </c>
+      <c r="P53" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>329</v>
+      </c>
+      <c r="B54" t="s">
+        <v>315</v>
+      </c>
+      <c r="C54" t="s">
+        <v>316</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E54" t="s">
+        <v>330</v>
+      </c>
+      <c r="F54" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54" t="s">
+        <v>22</v>
+      </c>
+      <c r="H54" t="s">
+        <v>23</v>
+      </c>
+      <c r="I54" t="s">
+        <v>24</v>
+      </c>
+      <c r="J54" t="s">
+        <v>331</v>
+      </c>
+      <c r="K54" t="s">
+        <v>332</v>
+      </c>
+      <c r="L54" t="s">
+        <v>27</v>
+      </c>
+      <c r="M54" t="s">
+        <v>28</v>
+      </c>
+      <c r="N54"/>
+      <c r="O54" t="s">
+        <v>333</v>
+      </c>
+      <c r="P54" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>334</v>
+      </c>
+      <c r="B55" t="s">
+        <v>335</v>
+      </c>
+      <c r="C55" t="s">
+        <v>336</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2025</v>
+      </c>
+      <c r="E55" t="s">
+        <v>337</v>
+      </c>
+      <c r="F55" t="s">
+        <v>47</v>
+      </c>
+      <c r="G55" t="s">
+        <v>22</v>
+      </c>
+      <c r="H55" t="s">
+        <v>23</v>
+      </c>
+      <c r="I55" t="s">
+        <v>24</v>
+      </c>
+      <c r="J55" t="s">
+        <v>338</v>
+      </c>
+      <c r="K55" t="s">
+        <v>26</v>
+      </c>
+      <c r="L55" t="s">
+        <v>339</v>
+      </c>
+      <c r="M55" t="s">
+        <v>28</v>
+      </c>
+      <c r="N55" t="s">
+        <v>340</v>
+      </c>
+      <c r="O55"/>
+      <c r="P55" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q55"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>342</v>
+      </c>
+      <c r="B56" t="s">
+        <v>335</v>
+      </c>
+      <c r="C56" t="s">
+        <v>336</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E56" t="s">
+        <v>343</v>
+      </c>
+      <c r="F56" t="s">
+        <v>47</v>
+      </c>
+      <c r="G56" t="s">
+        <v>22</v>
+      </c>
+      <c r="H56" t="s">
+        <v>23</v>
+      </c>
+      <c r="I56" t="s">
+        <v>24</v>
+      </c>
+      <c r="J56" t="s">
+        <v>338</v>
+      </c>
+      <c r="K56" t="s">
+        <v>26</v>
+      </c>
+      <c r="L56" t="s">
+        <v>339</v>
+      </c>
+      <c r="M56" t="s">
+        <v>28</v>
+      </c>
+      <c r="N56" t="s">
+        <v>344</v>
+      </c>
+      <c r="O56"/>
+      <c r="P56" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q56"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>345</v>
+      </c>
+      <c r="B57" t="s">
+        <v>335</v>
+      </c>
+      <c r="C57" t="s">
+        <v>336</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E57" t="s">
+        <v>346</v>
+      </c>
+      <c r="F57" t="s">
+        <v>21</v>
+      </c>
+      <c r="G57" t="s">
+        <v>22</v>
+      </c>
+      <c r="H57" t="s">
+        <v>23</v>
+      </c>
+      <c r="I57" t="s">
+        <v>24</v>
+      </c>
+      <c r="J57" t="s">
+        <v>338</v>
+      </c>
+      <c r="K57" t="s">
+        <v>26</v>
+      </c>
+      <c r="L57" t="s">
+        <v>38</v>
+      </c>
+      <c r="M57" t="s">
+        <v>28</v>
+      </c>
+      <c r="N57" t="s">
+        <v>347</v>
+      </c>
+      <c r="O57" t="s">
+        <v>348</v>
+      </c>
+      <c r="P57" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58"/>
+      <c r="B58" t="s">
+        <v>351</v>
+      </c>
+      <c r="C58" t="s">
+        <v>352</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E58" t="s">
+        <v>353</v>
+      </c>
+      <c r="F58" t="s">
+        <v>21</v>
+      </c>
+      <c r="G58" t="s">
+        <v>22</v>
+      </c>
+      <c r="H58" t="s">
+        <v>354</v>
+      </c>
+      <c r="I58" t="s">
+        <v>355</v>
+      </c>
+      <c r="J58"/>
+      <c r="K58" t="s">
+        <v>326</v>
+      </c>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
+      <c r="Q58"/>
+    </row>
+    <row r="59">
+      <c r="A59"/>
+      <c r="B59" t="s">
+        <v>148</v>
+      </c>
+      <c r="C59" t="s">
+        <v>149</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E59" t="s">
+        <v>356</v>
+      </c>
+      <c r="F59" t="s">
+        <v>21</v>
+      </c>
+      <c r="G59" t="s">
+        <v>22</v>
+      </c>
+      <c r="H59" t="s">
+        <v>354</v>
+      </c>
+      <c r="I59" t="s">
+        <v>357</v>
+      </c>
+      <c r="J59"/>
+      <c r="K59" t="s">
+        <v>326</v>
+      </c>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+      <c r="O59"/>
+      <c r="P59"/>
+      <c r="Q59"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
